--- a/current work.xlsx
+++ b/current work.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geral_000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TG\TGv1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15020" windowHeight="7580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="7584"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Keep the chaff.</t>
   </si>
@@ -105,15 +105,9 @@
     <t>Prevent empty method name in code pane.</t>
   </si>
   <si>
-    <t>Searching for/retrieving project sometimes doesn't work or works slowly.</t>
-  </si>
-  <si>
     <t>Reverse enabled/disabled menu colors.</t>
   </si>
   <si>
-    <t>Very seldom happens, if at all.</t>
-  </si>
-  <si>
     <t>This is caused by a complex chain of events that I have to step through.</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>All Projects menu items are available after closing a Project. Also, closing a project has to clear the browser tab.</t>
   </si>
   <si>
-    <t>Don't let them change the method type or add parameters to the initialize or construct methods.</t>
-  </si>
-  <si>
     <t>It may already be being done in the dialog.</t>
   </si>
   <si>
@@ -151,6 +142,18 @@
   </si>
   <si>
     <t>Tie together the work being done in type.js with the work that updates a TI's location or size if the user edits X,Y,Width or Height in the code block.</t>
+  </si>
+  <si>
+    <t>I think that opening a project can take a minute or two, and that's why it looks like it didn't work.</t>
+  </si>
+  <si>
+    <t>Don't let them change the method type of the initialize or construct methods.</t>
+  </si>
+  <si>
+    <t>Don't let them add parameters to the initialize method.</t>
+  </si>
+  <si>
+    <t>But the construct method can have parameters.</t>
   </si>
 </sst>
 </file>
@@ -522,24 +525,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -547,13 +550,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -561,7 +564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="3" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -569,13 +572,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -583,19 +586,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -603,7 +606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -611,7 +614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -619,42 +622,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,71 +665,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="32" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
     </row>

--- a/current work.xlsx
+++ b/current work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="7584"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15020" windowHeight="7580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Keep the chaff.</t>
   </si>
@@ -111,9 +111,6 @@
     <t>This is caused by a complex chain of events that I have to step through.</t>
   </si>
   <si>
-    <t>NOT REGULARLY REPRODUCEABLE</t>
-  </si>
-  <si>
     <t>Still broken?</t>
   </si>
   <si>
@@ -135,18 +132,12 @@
     <t>As soon as we convert the workspace XML to JSON, we do have an array of &lt;block&gt; nodes. We can fairly easily recognize function blocks (there may be none or one or more) and other blocks (called 'chaff').</t>
   </si>
   <si>
-    <t>And account for methodTypeIds 3 and 4 in Type.js line 291.</t>
-  </si>
-  <si>
     <t>See note and code in Code.js#self.blocklyChangeListener.</t>
   </si>
   <si>
     <t>Tie together the work being done in type.js with the work that updates a TI's location or size if the user edits X,Y,Width or Height in the code block.</t>
   </si>
   <si>
-    <t>I think that opening a project can take a minute or two, and that's why it looks like it didn't work.</t>
-  </si>
-  <si>
     <t>Don't let them change the method type of the initialize or construct methods.</t>
   </si>
   <si>
@@ -154,6 +145,12 @@
   </si>
   <si>
     <t>But the construct method can have parameters.</t>
+  </si>
+  <si>
+    <t>Account for methodTypeIds 3 and 4 in Type.js line 291.</t>
+  </si>
+  <si>
+    <t>Occasionally, opening a project can take 2 minutes.</t>
   </si>
 </sst>
 </file>
@@ -525,24 +522,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -550,13 +547,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -564,7 +561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="3" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -572,13 +569,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -586,19 +583,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -606,7 +603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -614,7 +611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -622,120 +619,114 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/current work.xlsx
+++ b/current work.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Keep the chaff.</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Finish Save Project</t>
-  </si>
-  <si>
-    <t>Make sure to call code updateMethod if method name is changed either in edit method dialog or Blockly name change.</t>
   </si>
   <si>
     <t>Only use is in Type.js#m_functionUpdateActiveMethodWorkspace.</t>
@@ -151,6 +148,12 @@
   </si>
   <si>
     <t>Occasionally, opening a project can take 2 minutes.</t>
+  </si>
+  <si>
+    <t>Make sure to call code.js#replaceMethod if method name is changed in Blockly name change.</t>
+  </si>
+  <si>
+    <t>It looks like it's hung on the client side retrieving the first image for the left vertical scroll pane.</t>
   </si>
 </sst>
 </file>
@@ -524,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,7 +539,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -544,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -558,57 +561,57 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="3" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -616,117 +619,120 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/current work.xlsx
+++ b/current work.xlsx
@@ -126,9 +126,6 @@
     <t>TO DO (Other)</t>
   </si>
   <si>
-    <t>As soon as we convert the workspace XML to JSON, we do have an array of &lt;block&gt; nodes. We can fairly easily recognize function blocks (there may be none or one or more) and other blocks (called 'chaff').</t>
-  </si>
-  <si>
     <t>See note and code in Code.js#self.blocklyChangeListener.</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>It looks like it's hung on the client side retrieving the first image for the left vertical scroll pane.</t>
+  </si>
+  <si>
+    <t>As soon as we convert the workspace XML to JSON, we do have an array of &lt;block&gt; nodes. We can fairly easily recognize function blocks (there may be none or one or more) and other blocks (called 'chaff'). Note: the solution does lose any chaff.</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,35 +641,35 @@
     </row>
     <row r="16" spans="1:2" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
@@ -683,23 +683,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
+    <row r="22" spans="1:2" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -729,10 +729,10 @@
     </row>
     <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/current work.xlsx
+++ b/current work.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Keep the chaff.</t>
   </si>
@@ -150,10 +150,19 @@
     <t>Make sure to call code.js#replaceMethod if method name is changed in Blockly name change.</t>
   </si>
   <si>
-    <t>It looks like it's hung on the client side retrieving the first image for the left vertical scroll pane.</t>
-  </si>
-  <si>
     <t>As soon as we convert the workspace XML to JSON, we do have an array of &lt;block&gt; nodes. We can fairly easily recognize function blocks (there may be none or one or more) and other blocks (called 'chaff'). Note: the solution does lose any chaff.</t>
+  </si>
+  <si>
+    <t>Retain chaff when user deletes the only function c-block or we otherwise fall thru the worpaceJSON.children loop.</t>
+  </si>
+  <si>
+    <t>Methods (and probably more) are no longer being written to the database for a new project.</t>
+  </si>
+  <si>
+    <t>ordinal isn't being incremented for subsequent types in a comic when writing to the database for a new project.</t>
+  </si>
+  <si>
+    <t>May be done. Needs testing.</t>
   </si>
 </sst>
 </file>
@@ -525,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,51 +697,67 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>41</v>
+    <row r="34" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/current work.xlsx
+++ b/current work.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Keep the chaff.</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>May be done. Needs testing.</t>
+  </si>
+  <si>
+    <t>Need to refresh TW header when method name changes.</t>
+  </si>
+  <si>
+    <t>Saving project is quite messed up.</t>
   </si>
 </sst>
 </file>
@@ -534,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,58 +712,69 @@
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
+    <row r="24" spans="1:2" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/current work.xlsx
+++ b/current work.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Keep the chaff.</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Saving project is quite messed up.</t>
+  </si>
+  <si>
+    <t>Had to comment out Type.js line 296 (call to code.replaceMethod). It forces 2 passes thru BlocklyChangeListener and removes focus from name change after each character is typed.</t>
+  </si>
+  <si>
+    <t>Discuss w/Ken.</t>
   </si>
 </sst>
 </file>
@@ -543,7 +549,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -744,6 +750,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="29" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="32" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>32</v>

--- a/current work.xlsx
+++ b/current work.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Keep the chaff.</t>
   </si>
@@ -546,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -780,14 +780,15 @@
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="36" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>47</v>
       </c>
     </row>

--- a/current work.xlsx
+++ b/current work.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Keep the chaff.</t>
   </si>
@@ -156,25 +156,19 @@
     <t>Retain chaff when user deletes the only function c-block or we otherwise fall thru the worpaceJSON.children loop.</t>
   </si>
   <si>
-    <t>Methods (and probably more) are no longer being written to the database for a new project.</t>
-  </si>
-  <si>
-    <t>ordinal isn't being incremented for subsequent types in a comic when writing to the database for a new project.</t>
-  </si>
-  <si>
     <t>May be done. Needs testing.</t>
   </si>
   <si>
     <t>Need to refresh TW header when method name changes.</t>
   </si>
   <si>
-    <t>Saving project is quite messed up.</t>
-  </si>
-  <si>
     <t>Had to comment out Type.js line 296 (call to code.replaceMethod). It forces 2 passes thru BlocklyChangeListener and removes focus from name change after each character is typed.</t>
   </si>
   <si>
     <t>Discuss w/Ken.</t>
+  </si>
+  <si>
+    <t>Saving project is a little messed up.</t>
   </si>
 </sst>
 </file>
@@ -549,7 +543,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,73 +717,63 @@
         <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
+    </row>
+    <row r="27" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
+    <row r="34" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/current work.xlsx
+++ b/current work.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Keep the chaff.</t>
   </si>
@@ -120,12 +120,6 @@
     <t>It may already be being done in the dialog.</t>
   </si>
   <si>
-    <t>TO DO (Blockly-related)</t>
-  </si>
-  <si>
-    <t>TO DO (Other)</t>
-  </si>
-  <si>
     <t>See note and code in Code.js#self.blocklyChangeListener.</t>
   </si>
   <si>
@@ -169,6 +163,33 @@
   </si>
   <si>
     <t>Saving project is a little messed up.</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t>Save project is still broken.</t>
+  </si>
+  <si>
+    <t>Load all system base types with every project.</t>
+  </si>
+  <si>
+    <t>Kill the system base type table.</t>
+  </si>
+  <si>
+    <t>Set up the droplist for new classes' base type choice to include all types EXCEPT the App type in this comic and the 1 base type that that App type is derived from. All other system base types should be included.</t>
+  </si>
+  <si>
+    <t>Double res.json({});</t>
+  </si>
+  <si>
+    <t>Save system base types when the project is saved, updating their former record so that their id stays the same. But deleting and then inserting of methods, props and events is the way to go for them.</t>
+  </si>
+  <si>
+    <t>See if I can auto-update the system base type SQL script when a project with system base types maintenance is saved.</t>
+  </si>
+  <si>
+    <t>Or always, if I don't know.</t>
   </si>
 </sst>
 </file>
@@ -540,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,35 +677,35 @@
     </row>
     <row r="16" spans="1:2" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
@@ -703,77 +724,107 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/current work.xlsx
+++ b/current work.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Keep the chaff.</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>Or always, if I don't know.</t>
+  </si>
+  <si>
+    <t>Delete current type should be disabled for: App Type; any SBT; any Type in the current Comic that is a base type for another type in that comic.</t>
+  </si>
+  <si>
+    <t>A New SBT should require an image.</t>
+  </si>
+  <si>
+    <t>Think more about deleting SBTs beyond the first 5.</t>
   </si>
 </sst>
 </file>
@@ -561,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -776,42 +785,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
+    <row r="31" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -825,6 +834,19 @@
       </c>
       <c r="B38" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/current work.xlsx
+++ b/current work.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Keep the chaff.</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Think more about deleting SBTs beyond the first 5.</t>
+  </si>
+  <si>
+    <t>Don't forget to delete m, p, e from updated SBTs.</t>
+  </si>
+  <si>
+    <t>Why did it work?</t>
   </si>
 </sst>
 </file>
@@ -570,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -849,6 +855,16 @@
         <v>56</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/current work.xlsx
+++ b/current work.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Keep the chaff.</t>
   </si>
@@ -192,12 +192,6 @@
     <t>Or always, if I don't know.</t>
   </si>
   <si>
-    <t>Delete current type should be disabled for: App Type; any SBT; any Type in the current Comic that is a base type for another type in that comic.</t>
-  </si>
-  <si>
-    <t>A New SBT should require an image.</t>
-  </si>
-  <si>
     <t>Think more about deleting SBTs beyond the first 5.</t>
   </si>
   <si>
@@ -205,6 +199,24 @@
   </si>
   <si>
     <t>Why did it work?</t>
+  </si>
+  <si>
+    <t>Add  new fields to ProjectBO.routeRetrieveType and its 3 arrays. And to routeRetrieveMethod.</t>
+  </si>
+  <si>
+    <t>In TypeWell: Delete current type should be disabled for: App Type; any SBT; any Type in the current Comic that is a base type for another type in that comic.</t>
+  </si>
+  <si>
+    <t>A New SBT should probably require an image.</t>
+  </si>
+  <si>
+    <t>I should have added new Types twice.</t>
+  </si>
+  <si>
+    <t>Any type that's a base type (even one that's not new--if not an SBT) will get a new id when it's written in save or save as and, thus the guys who point to him has to have baseTypeId updated.</t>
+  </si>
+  <si>
+    <t>I'm going to need to mark types that are base types (not SBTs) si that I can update their derived types' bastTypeIds.</t>
   </si>
 </sst>
 </file>
@@ -576,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -844,25 +856,44 @@
     </row>
     <row r="39" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/current work.xlsx
+++ b/current work.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Keep the chaff.</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>I'm going to need to mark types that are base types (not SBTs) si that I can update their derived types' bastTypeIds.</t>
+  </si>
+  <si>
+    <t>If a non-SBT base type is deleted, either the type(s) that point to it have to be nulled, or better, it should be prohibited in the UI.</t>
+  </si>
+  <si>
+    <t>Add usergroups</t>
+  </si>
+  <si>
+    <t>Discuss w/Ken. He agrees, but, since it's only us who add them, says the program doesn't have to enforce. Maybe.</t>
   </si>
 </sst>
 </file>
@@ -588,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -811,89 +820,107 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
+    <row r="32" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>63</v>
+    <row r="47" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/current work.xlsx
+++ b/current work.xlsx
@@ -597,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -846,9 +846,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+    <row r="36" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
@@ -913,13 +914,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
     </row>
